--- a/UseCaseScenarij/ZakazivanjeTermina.xlsx
+++ b/UseCaseScenarij/ZakazivanjeTermina.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdnaN\Desktop\OOAD scenariji\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdnaN\Desktop\update ovo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -134,9 +134,6 @@
     <t xml:space="preserve"> termina stomatologa</t>
   </si>
   <si>
-    <t>Tok događaja - Neuspješan završetak</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.Obavještava pacijenta </t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>1. Odbija zahtjevanii termin</t>
+  </si>
+  <si>
+    <t>Alternativni tok događaja - neuspješan završetak</t>
   </si>
 </sst>
 </file>
@@ -630,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,7 +884,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -903,28 +903,28 @@
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
